--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56591.26856728152</v>
+        <v>11261662.444889</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56591.26856728152</v>
+        <v>11261662.444889</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036169018.532525</v>
+        <v>42938236.93105567</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9107.05218496323</v>
+        <v>1020719.176083279</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17126.18269367332</v>
+        <v>1870798.67830778</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25145.3132023834</v>
+        <v>2720878.180532282</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33187.58420696125</v>
+        <v>3570957.682756784</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41229.85521153909</v>
+        <v>4421037.184981287</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49272.12621611694</v>
+        <v>5271116.687205788</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57314.39722069479</v>
+        <v>6121196.189430286</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65356.66822527264</v>
+        <v>6971275.691654784</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73398.93922985048</v>
+        <v>7821355.193879282</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81441.21023442852</v>
+        <v>8671434.69610378</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89483.48123900655</v>
+        <v>9521514.198328283</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97525.75224358437</v>
+        <v>10371593.70055279</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>105568.0232481622</v>
+        <v>11221673.2027773</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>113610.29425274</v>
+        <v>12071752.7050018</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>121652.5652573176</v>
+        <v>12921832.20722631</v>
       </c>
     </row>
   </sheetData>
